--- a/MMA ML Project/Skill Estimates/Skill Estimates Pre-2023-05-05/Welterweight/All_Intercepts.xlsx
+++ b/MMA ML Project/Skill Estimates/Skill Estimates Pre-2023-05-05/Welterweight/All_Intercepts.xlsx
@@ -1,21 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Test MMA Project\MMA ML Project\Skill Estimates\Skill Estimates Pre-2023-05-05\Welterweight\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67207D8-FAE6-4ED7-A8DC-A6CB038BBF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3600" yWindow="834" windowWidth="10902" windowHeight="11526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Skill Estimate Name</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Standing Shot Probability</t>
+  </si>
+  <si>
+    <t>Takedown Attempt Probability</t>
+  </si>
+  <si>
+    <t>Submission Attempt Probability</t>
+  </si>
+  <si>
+    <t>Ground Shot Probability</t>
+  </si>
+  <si>
+    <t>Standing Head Accuracy</t>
+  </si>
+  <si>
+    <t>Standing Head Shot Probability</t>
+  </si>
+  <si>
+    <t>Ground Head Shot Probability</t>
+  </si>
+  <si>
+    <t>Standing Body Accuracy</t>
+  </si>
+  <si>
+    <t>Ground Head Accuracy</t>
+  </si>
+  <si>
+    <t>Ground Body Accuracy</t>
+  </si>
+  <si>
+    <t>Takedown Accuracy</t>
+  </si>
+  <si>
+    <t>Submission Accuracy</t>
+  </si>
+  <si>
+    <t>Knockout Probability</t>
+  </si>
+  <si>
+    <t>Ground Control</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +131,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,48 +428,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Skill Estimate Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Standing Shot Probability</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-2.221717475870005</v>
+        <v>-2.2217174758700051</v>
       </c>
       <c r="C2">
         <v>0.1173418683799262</v>
@@ -400,235 +468,228 @@
         <v>-18.93371484998508</v>
       </c>
       <c r="E2">
-        <v>6.016601515005371E-80</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Takedown Attempt Probability</t>
-        </is>
+        <v>6.0166015150053709E-80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-5.380357109127567</v>
+        <v>-5.3803571091275666</v>
       </c>
       <c r="C3">
-        <v>0.1303568402749206</v>
+        <v>0.13035684027492059</v>
       </c>
       <c r="D3">
-        <v>-41.27406814847979</v>
+        <v>-41.274068148479792</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Submission Attempt Probability</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-6.302667638736234</v>
+        <v>-6.3026676387362341</v>
       </c>
       <c r="C4">
         <v>0.1613102423755024</v>
       </c>
       <c r="D4">
-        <v>-39.07171389690625</v>
+        <v>-39.071713896906253</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ground Shot Probability</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>-3.267821161169184</v>
+        <v>-3.2678211611691839</v>
       </c>
       <c r="C5">
-        <v>0.1326174550824021</v>
+        <v>0.13261745508240211</v>
       </c>
       <c r="D5">
-        <v>-24.64095815395279</v>
+        <v>-24.640958153952791</v>
       </c>
       <c r="E5">
-        <v>4.600437796856956E-134</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Standing Head Accuracy</t>
-        </is>
+        <v>4.6004377968569556E-134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.741705473925284</v>
+        <v>-0.74170547392528396</v>
       </c>
       <c r="C6">
-        <v>0.1203202104839231</v>
+        <v>0.12032021048392311</v>
       </c>
       <c r="D6">
-        <v>-6.164429657679073</v>
+        <v>-6.1644296576790731</v>
       </c>
       <c r="E6">
-        <v>7.073763306960268E-10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Standing Head Shot Probability</t>
-        </is>
+        <v>7.0737633069602676E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1.22937297032196</v>
       </c>
       <c r="C7">
-        <v>0.08292440452482218</v>
+        <v>8.2924404524822179E-2</v>
       </c>
       <c r="D7">
-        <v>14.82522518390789</v>
+        <v>14.825225183907889</v>
       </c>
       <c r="E7">
         <v>1.006418477932476E-49</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ground Head Shot Probability</t>
-        </is>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>1.557897052415716</v>
+        <v>1.5578970524157161</v>
       </c>
       <c r="C8">
-        <v>0.09977751174798447</v>
+        <v>9.9777511747984465E-2</v>
       </c>
       <c r="D8">
         <v>15.61370919281504</v>
       </c>
       <c r="E8">
-        <v>5.872153145836386E-55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Standing Body Accuracy</t>
-        </is>
+        <v>5.8721531458363862E-55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.9885277788760731</v>
+        <v>0.98852777887607313</v>
       </c>
       <c r="C9">
-        <v>0.1279000459482051</v>
+        <v>0.12790004594820509</v>
       </c>
       <c r="D9">
-        <v>7.728908707948325</v>
+        <v>7.7289087079483254</v>
       </c>
       <c r="E9">
         <v>1.084724252568942E-14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ground Head Accuracy</t>
-        </is>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.3721606044923503</v>
+        <v>0.37216060449235028</v>
       </c>
       <c r="C10">
-        <v>0.1412210634267771</v>
+        <v>0.14122106342677709</v>
       </c>
       <c r="D10">
         <v>2.635305211997041</v>
       </c>
       <c r="E10">
-        <v>0.008406165824272855</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ground Body Accuracy</t>
-        </is>
+        <v>8.406165824272855E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>2.124077453308432</v>
+        <v>2.1240774533084319</v>
       </c>
       <c r="C11">
-        <v>0.2051378899401763</v>
+        <v>0.20513788994017629</v>
       </c>
       <c r="D11">
         <v>10.35438871837801</v>
       </c>
       <c r="E11">
-        <v>3.997317655775079E-25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Takedown Accuracy</t>
-        </is>
+        <v>3.9973176557750792E-25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.4876933332302292</v>
+        <v>-0.48769333323022918</v>
       </c>
       <c r="C12">
-        <v>0.1484841173488665</v>
+        <v>0.14848411734886649</v>
       </c>
       <c r="D12">
-        <v>-3.284481478139401</v>
+        <v>-3.2844814781394009</v>
       </c>
       <c r="E12">
-        <v>0.00102170213483547</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Submission Accuracy</t>
-        </is>
+        <v>1.02170213483547E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
         <v>-1.52846228649076</v>
       </c>
       <c r="C13">
-        <v>0.2348032578731298</v>
+        <v>0.23480325787312981</v>
       </c>
       <c r="D13">
-        <v>-6.509544630409801</v>
+        <v>-6.5095446304098008</v>
       </c>
       <c r="E13">
-        <v>7.537895805847683E-11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Knockout Probability</t>
-        </is>
+        <v>7.5378958058476831E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-4.495468297973821</v>
+        <v>-4.4954682979738214</v>
       </c>
       <c r="C14">
-        <v>0.1685395459296178</v>
+        <v>0.16853954592961781</v>
       </c>
       <c r="D14">
-        <v>-26.67307707029857</v>
+        <v>-26.673077070298572</v>
       </c>
       <c r="E14">
-        <v>9.664821774263171E-157</v>
+        <v>9.6648217742631713E-157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4.4611432707397016</v>
+      </c>
+      <c r="C15">
+        <v>0.1481852984055608</v>
+      </c>
+      <c r="D15">
+        <v>30.10516777804925</v>
+      </c>
+      <c r="E15">
+        <v>9.1624310849663545E-104</v>
       </c>
     </row>
   </sheetData>
